--- a/tmp/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)/Miss Willoughby - CCSL 23.98 fps (561102xCDD60).PDF-total-recap.xlsx
+++ b/tmp/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)/Miss Willoughby - CCSL 23.98 fps (561102xCDD60).PDF-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 - MAIN TITLE)</t>
+          <t>2 - MAIN TITLE</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - (CONT'D)</t>
+          <t xml:space="preserve">7 - </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -587,57 +587,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - YOUNG ROBERT)</t>
+          <t>10 - WILLOUGHBY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - WILLOUGHBY)</t>
+          <t xml:space="preserve">11 - WILLOUGHBY) </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - WILLOUGHBY) (CONT'D)</t>
+          <t xml:space="preserve">12 - YOUNG ROBERT) </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - YOUNG ROBERT) (CONT'D)</t>
+          <t>13 - LAURA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - WILLOUGHBY</t>
+          <t>14 - YOUNG MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - LAURA</t>
+          <t>15 - YOUNG MISS WILLOUGHBY) (CONT'D</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -647,27 +647,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - YOUNG MISS WILLOUGHBY)</t>
+          <t>16 - MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - YOUNG MISS WILLOUGHBY) (CONT'D</t>
+          <t>17 - [VO]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - YOUNG MISS WILLOUGHBY</t>
+          <t>18 - THEN OLIVER</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -677,127 +677,127 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - MISS WILLOUGHBY</t>
+          <t>19 - OLIVER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - [VO])</t>
+          <t>20 - THEN MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - THEN OLIVER</t>
+          <t>21 - ROBERT</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - (CONT'D) [VO])</t>
+          <t>22 - HELEN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - OLIVER</t>
+          <t>23 - 2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - THEN MISS WILLOUGHBY</t>
+          <t>24 - DIANA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25 - MISS WILLOUGHBY)</t>
+          <t>25 - SARAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26 - ROBERT</t>
+          <t>26 - 5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27 - HELEN</t>
+          <t>27 - MAN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28 - 2</t>
+          <t xml:space="preserve">28 - HELEN) </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29 - DIANA</t>
+          <t>29 - CAROLE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30 - SARAH)</t>
+          <t>30 - ANDREW</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31 - 5</t>
+          <t>31 - THE HELEN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -807,197 +807,197 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32 - SARAH</t>
+          <t>32 - BRIONY</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33 - DIANA)</t>
+          <t>33 - TITLE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34 - MAN</t>
+          <t>34 - MURRAY</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35 - HELEN)</t>
+          <t xml:space="preserve">35 - MURRAY) </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>36 - HELEN) (CONT'D)</t>
+          <t>36 - TO MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37 - OLIVER)</t>
+          <t>37 - THE ROBERT</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38 - ROBERT)</t>
+          <t>38 - DR. SHIRANI</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>39 - CAROLE</t>
+          <t>39 - SHIRANI</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40 - ANDREW</t>
+          <t>40 - THEN DR. SHIRANI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>41 - THE HELEN</t>
+          <t>41 - TO CHARLES</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>42 - BRIONY</t>
+          <t>42 - CHARLES</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>43 - TITLE)</t>
+          <t>43 - THE CHARLES</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>44 - MURRAY)</t>
+          <t>44 - PROFESSOR MURRAY</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>45 - MURRAY) (CONT'D)</t>
+          <t>45 - THEN PROFESSOR MURRAY</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>46 - TO MISS WILLOUGHBY)</t>
+          <t>46 - RONALD</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>47 - WILLOUGHBY (CONT'D)</t>
+          <t>47 - TO ROBERT</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48 - THE ROBERT</t>
+          <t>48 - D.I. PRYCE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>49 - DR. SHIRANI</t>
+          <t>49 - TO D.I. PRYCE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50 - SHIRANI</t>
+          <t>50 - PRYCE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>51 - THEN DR. SHIRANI</t>
+          <t>51 - OFFICER</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1007,160 +1007,40 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>52 - TO CHARLES)</t>
+          <t>52 - TO SARAH</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>53 - CHARLES</t>
+          <t>53 - SPEAKER</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>54 - THE CHARLES</t>
+          <t>54 - OLIVE</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>55 - PROFESSOR MURRAY</t>
+          <t>55 - (LOGO</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>56 - THEN PROFESSOR MURRAY</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>57 - RONALD</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>58 - (CONT'D) THEN SARAH</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>59 - TO ROBERT)</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>60 - D.I. PRYCE</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>61 - TO D.I. PRYCE)</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>62 - PRYCE)</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>63 - OFFICER</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>64 - TO SARAH)</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>65 - SPEAKER</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>66 - OLIVE</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>67 - (LOGO)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
         <v>3</v>
       </c>
     </row>
